--- a/other/Feature_categorization.xlsx
+++ b/other/Feature_categorization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scientometrics" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,11 @@
     <sheet name="Facebook" sheetId="3" r:id="rId3"/>
     <sheet name="Quora" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Facebook!$C$1:$C$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Quora!$C$1:$C$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Twitter!$C$1:$C$19</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="172">
   <si>
     <t>PAPER COUNT</t>
   </si>
@@ -472,9 +477,6 @@
     <t>answer’s SMOG value.</t>
   </si>
   <si>
-    <t>answer_features</t>
-  </si>
-  <si>
     <t>question_subjectivity</t>
   </si>
   <si>
@@ -498,9 +500,6 @@
 that appear in our dataset</t>
   </si>
   <si>
-    <t>subjectivity_features</t>
-  </si>
-  <si>
     <t>lda_X</t>
   </si>
   <si>
@@ -518,9 +517,6 @@
     <t>the ratio of the number of times the user is mentioned in other people’s posts to the number of user’s friends</t>
   </si>
   <si>
-    <t>activity_feature</t>
-  </si>
-  <si>
     <t>activity_features</t>
   </si>
   <si>
@@ -539,15 +535,9 @@
     <t>CIT_INDEGREE_UNWEIGHTED</t>
   </si>
   <si>
-    <t xml:space="preserve">number of distinct authors this author referenced by </t>
-  </si>
-  <si>
     <t>CIT_INDEGREE_WEIGHTED</t>
   </si>
   <si>
-    <t>Total number of received references</t>
-  </si>
-  <si>
     <t>number of distinct users this user  replied to</t>
   </si>
   <si>
@@ -564,6 +554,18 @@
   </si>
   <si>
     <t xml:space="preserve">total number of views of answers </t>
+  </si>
+  <si>
+    <t>user_posts_num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the number of posts </t>
+  </si>
+  <si>
+    <t>number of distinct authors referenced to this author</t>
+  </si>
+  <si>
+    <t>Total number of received citations</t>
   </si>
 </sst>
 </file>
@@ -914,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,18 +935,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -955,7 +957,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -966,7 +968,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -977,7 +979,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -988,7 +990,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -999,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1010,7 +1012,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1021,7 +1023,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1120,7 +1122,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1131,7 +1133,7 @@
         <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1139,10 +1141,10 @@
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1153,29 +1155,29 @@
         <v>38</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -1240,10 +1242,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3827B27F-F84A-498F-A099-A424E748D8D3}">
-  <dimension ref="A1:C18"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,213 +1256,221 @@
     <col min="3" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>158</v>
+      <c r="C19" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C19" xr:uid="{EE85323D-AEA2-4AC6-AC34-6C01EB0C2EF1}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="reaction_features"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E084EBD6-DEFE-4768-BE96-DC4F7BCA9EFA}">
-  <dimension ref="A1:C17"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,194 +1480,212 @@
     <col min="3" max="3" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" t="s">
         <v>156</v>
       </c>
-      <c r="C6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C17" t="s">
-        <v>158</v>
+      <c r="C19" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C19" xr:uid="{8D996148-0BD2-4C34-B31C-1A1D38B4B5A7}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="reaction_features"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1665,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E5AA34-DC93-48B1-9EB8-35FEE57F66B3}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1684,7 +1713,7 @@
         <v>123</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1695,7 +1724,7 @@
         <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1706,7 +1735,7 @@
         <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1728,7 +1757,7 @@
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1739,7 +1768,7 @@
         <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1794,18 +1823,18 @@
         <v>135</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1816,7 +1845,7 @@
         <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1827,7 +1856,7 @@
         <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1838,7 +1867,7 @@
         <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1849,48 +1878,48 @@
         <v>143</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C20" t="s">
         <v>51</v>
@@ -1898,16 +1927,17 @@
     </row>
     <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C21" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C21" xr:uid="{997FEACF-28E0-413E-8577-010DF902E57E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>